--- a/public/Plantilla3.xlsx
+++ b/public/Plantilla3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\hg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,9 +48,6 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>Negocios</t>
-  </si>
-  <si>
     <t>BV</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>ENE-MAR2024</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -927,10 +927,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -956,10 +956,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
